--- a/Total_sales_by_ship_and_fulfil.xlsx
+++ b/Total_sales_by_ship_and_fulfil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,26 +458,71 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20719712</v>
+        <v>50331934</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20726730</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Unshipped</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3990217</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Unshipped</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>341221</v>
+      <c r="C5" t="n">
+        <v>353625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
